--- a/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026722710832819</v>
+        <v>1.011762605007873</v>
       </c>
       <c r="D2">
-        <v>1.044389053768708</v>
+        <v>1.032208743837549</v>
       </c>
       <c r="E2">
-        <v>1.038501222812395</v>
+        <v>1.025989137616941</v>
       </c>
       <c r="F2">
-        <v>1.048343870109461</v>
+        <v>1.035445099156419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059051860096121</v>
+        <v>1.052865239322504</v>
       </c>
       <c r="J2">
-        <v>1.04813250489457</v>
+        <v>1.033597101608424</v>
       </c>
       <c r="K2">
-        <v>1.055262769099233</v>
+        <v>1.043236880754228</v>
       </c>
       <c r="L2">
-        <v>1.049449019246893</v>
+        <v>1.037097897472165</v>
       </c>
       <c r="M2">
-        <v>1.059168407418045</v>
+        <v>1.046431762882789</v>
       </c>
       <c r="N2">
-        <v>1.049620973273999</v>
+        <v>1.035064928047952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034047694188123</v>
+        <v>1.016624724239837</v>
       </c>
       <c r="D3">
-        <v>1.050223224328543</v>
+        <v>1.036008468895067</v>
       </c>
       <c r="E3">
-        <v>1.044763410424463</v>
+        <v>1.030030841439955</v>
       </c>
       <c r="F3">
-        <v>1.054870279372907</v>
+        <v>1.03977572426404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061533316070916</v>
+        <v>1.054305606524358</v>
       </c>
       <c r="J3">
-        <v>1.053651338250041</v>
+        <v>1.036672218646134</v>
       </c>
       <c r="K3">
-        <v>1.060251420805351</v>
+        <v>1.046200447526547</v>
       </c>
       <c r="L3">
-        <v>1.054853863986335</v>
+        <v>1.04029336698113</v>
       </c>
       <c r="M3">
-        <v>1.064846111682804</v>
+        <v>1.049923757577298</v>
       </c>
       <c r="N3">
-        <v>1.055147644005854</v>
+        <v>1.038144412104577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038652566298101</v>
+        <v>1.019703706909706</v>
       </c>
       <c r="D4">
-        <v>1.053892041148742</v>
+        <v>1.038414679531111</v>
       </c>
       <c r="E4">
-        <v>1.048705456689141</v>
+        <v>1.032595830354291</v>
       </c>
       <c r="F4">
-        <v>1.058978565469751</v>
+        <v>1.042522655278767</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063077845408373</v>
+        <v>1.055202654341296</v>
       </c>
       <c r="J4">
-        <v>1.05711667704069</v>
+        <v>1.03861647500454</v>
       </c>
       <c r="K4">
-        <v>1.063380798231732</v>
+        <v>1.048070567806752</v>
       </c>
       <c r="L4">
-        <v>1.058249547293832</v>
+        <v>1.042316146992203</v>
       </c>
       <c r="M4">
-        <v>1.068413699995473</v>
+        <v>1.052133590226327</v>
       </c>
       <c r="N4">
-        <v>1.058617903975065</v>
+        <v>1.040091429530022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040557897321472</v>
+        <v>1.020982638198914</v>
       </c>
       <c r="D5">
-        <v>1.055410243247925</v>
+        <v>1.039414097128536</v>
       </c>
       <c r="E5">
-        <v>1.050337723683133</v>
+        <v>1.033662543890875</v>
       </c>
       <c r="F5">
-        <v>1.060679644961602</v>
+        <v>1.043664695917489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063713145157093</v>
+        <v>1.05557159220048</v>
       </c>
       <c r="J5">
-        <v>1.058549466382846</v>
+        <v>1.039423289553979</v>
       </c>
       <c r="K5">
-        <v>1.06467392432256</v>
+        <v>1.048845734311835</v>
       </c>
       <c r="L5">
-        <v>1.059653988546644</v>
+        <v>1.043156129073682</v>
       </c>
       <c r="M5">
-        <v>1.069889350225815</v>
+        <v>1.053051088282086</v>
       </c>
       <c r="N5">
-        <v>1.060052728042431</v>
+        <v>1.040899389848663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040876066751969</v>
+        <v>1.021196485864942</v>
       </c>
       <c r="D6">
-        <v>1.055663774058927</v>
+        <v>1.039581202504766</v>
       </c>
       <c r="E6">
-        <v>1.05061036205723</v>
+        <v>1.033840981065579</v>
       </c>
       <c r="F6">
-        <v>1.06096377582152</v>
+        <v>1.043855713805273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063819009639616</v>
+        <v>1.055633064076835</v>
       </c>
       <c r="J6">
-        <v>1.058788663417678</v>
+        <v>1.039558148506146</v>
       </c>
       <c r="K6">
-        <v>1.064889760180918</v>
+        <v>1.048975250829693</v>
       </c>
       <c r="L6">
-        <v>1.059888479351419</v>
+        <v>1.043296566195642</v>
       </c>
       <c r="M6">
-        <v>1.070135736675716</v>
+        <v>1.053204475863675</v>
       </c>
       <c r="N6">
-        <v>1.060292264764488</v>
+        <v>1.041034440316011</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038678143302741</v>
+        <v>1.019720856080759</v>
       </c>
       <c r="D7">
-        <v>1.053912420791328</v>
+        <v>1.03842808102819</v>
       </c>
       <c r="E7">
-        <v>1.048727363503583</v>
+        <v>1.032610128895638</v>
       </c>
       <c r="F7">
-        <v>1.059001395910434</v>
+        <v>1.042537964859166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063086388625554</v>
+        <v>1.055207616008476</v>
       </c>
       <c r="J7">
-        <v>1.057135914893913</v>
+        <v>1.038627296702088</v>
       </c>
       <c r="K7">
-        <v>1.063398163867501</v>
+        <v>1.048080968529203</v>
       </c>
       <c r="L7">
-        <v>1.058268402743575</v>
+        <v>1.042327411260582</v>
       </c>
       <c r="M7">
-        <v>1.068433511039154</v>
+        <v>1.052145894629375</v>
       </c>
       <c r="N7">
-        <v>1.058637169148246</v>
+        <v>1.040102266595621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029227240392473</v>
+        <v>1.013420052346454</v>
       </c>
       <c r="D8">
-        <v>1.046383545721359</v>
+        <v>1.033503993931115</v>
       </c>
       <c r="E8">
-        <v>1.040641193973803</v>
+        <v>1.027365720988109</v>
       </c>
       <c r="F8">
-        <v>1.0505741515066</v>
+        <v>1.036920385495433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059903525820728</v>
+        <v>1.053359375852144</v>
       </c>
       <c r="J8">
-        <v>1.050020306367216</v>
+        <v>1.03464600237716</v>
       </c>
       <c r="K8">
-        <v>1.056969844075961</v>
+        <v>1.044248479441019</v>
       </c>
       <c r="L8">
-        <v>1.051297418503675</v>
+        <v>1.038187338499266</v>
       </c>
       <c r="M8">
-        <v>1.061110018291785</v>
+        <v>1.047622434037523</v>
       </c>
       <c r="N8">
-        <v>1.051511455641269</v>
+        <v>1.036115318376091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011454543135752</v>
+        <v>1.001774434009755</v>
       </c>
       <c r="D9">
-        <v>1.032239628156304</v>
+        <v>1.024405881175369</v>
       </c>
       <c r="E9">
-        <v>1.025482192134847</v>
+        <v>1.017719159603983</v>
       </c>
       <c r="F9">
-        <v>1.034775067359826</v>
+        <v>1.026576072433979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053796152438413</v>
+        <v>1.049825644535934</v>
       </c>
       <c r="J9">
-        <v>1.036609196502522</v>
+        <v>1.027264687666272</v>
       </c>
       <c r="K9">
-        <v>1.044830432266717</v>
+        <v>1.037115022163749</v>
       </c>
       <c r="L9">
-        <v>1.038174937760907</v>
+        <v>1.030531151463793</v>
       </c>
       <c r="M9">
-        <v>1.047328059024122</v>
+        <v>1.039252199956317</v>
       </c>
       <c r="N9">
-        <v>1.038081300462292</v>
+        <v>1.028723521351664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9987189988279145</v>
+        <v>0.9936028531091724</v>
       </c>
       <c r="D10">
-        <v>1.022122083376714</v>
+        <v>1.018028246034908</v>
       </c>
       <c r="E10">
-        <v>1.014658609404453</v>
+        <v>1.010985371056135</v>
       </c>
       <c r="F10">
-        <v>1.023494050878738</v>
+        <v>1.019347394011944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04934151613918</v>
+        <v>1.047270011363071</v>
       </c>
       <c r="J10">
-        <v>1.026983533495966</v>
+        <v>1.022072600424258</v>
       </c>
       <c r="K10">
-        <v>1.036103083136505</v>
+        <v>1.032079449456607</v>
       </c>
       <c r="L10">
-        <v>1.028768147637731</v>
+        <v>1.025159074074774</v>
       </c>
       <c r="M10">
-        <v>1.037451685512953</v>
+        <v>1.033375896267269</v>
       </c>
       <c r="N10">
-        <v>1.028441967910188</v>
+        <v>1.023524060750227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9929588422144988</v>
+        <v>0.9899572538938821</v>
       </c>
       <c r="D11">
-        <v>1.017552242155244</v>
+        <v>1.015185543514985</v>
       </c>
       <c r="E11">
-        <v>1.009774242564812</v>
+        <v>1.007990391198587</v>
       </c>
       <c r="F11">
-        <v>1.018403170643474</v>
+        <v>1.016130410551157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047309360978236</v>
+        <v>1.046112666444359</v>
       </c>
       <c r="J11">
-        <v>1.022627503889918</v>
+        <v>1.019753874241113</v>
       </c>
       <c r="K11">
-        <v>1.032150570112912</v>
+        <v>1.029826654377539</v>
       </c>
       <c r="L11">
-        <v>1.024514155365533</v>
+        <v>1.02276317739932</v>
       </c>
       <c r="M11">
-        <v>1.03298617948779</v>
+        <v>1.030754409936765</v>
       </c>
       <c r="N11">
-        <v>1.024079752242456</v>
+        <v>1.021202041709939</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907789181028026</v>
+        <v>0.9885860304207447</v>
       </c>
       <c r="D12">
-        <v>1.015823919298963</v>
+        <v>1.014116793498773</v>
       </c>
       <c r="E12">
-        <v>1.007927585718947</v>
+        <v>1.006865341753649</v>
       </c>
       <c r="F12">
-        <v>1.01647842423704</v>
+        <v>1.014921679068688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046537800059256</v>
+        <v>1.045674844807857</v>
       </c>
       <c r="J12">
-        <v>1.020978723395286</v>
+        <v>1.018881430436889</v>
       </c>
       <c r="K12">
-        <v>1.030654110053222</v>
+        <v>1.02897844501338</v>
       </c>
       <c r="L12">
-        <v>1.022904465562025</v>
+        <v>1.021862184106844</v>
       </c>
       <c r="M12">
-        <v>1.031296589569177</v>
+        <v>1.029768480097682</v>
       </c>
       <c r="N12">
-        <v>1.022428630290404</v>
+        <v>1.020328358935443</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.991248405178603</v>
+        <v>0.9888809521099683</v>
       </c>
       <c r="D13">
-        <v>1.016196091447614</v>
+        <v>1.014346636222122</v>
       </c>
       <c r="E13">
-        <v>1.008325212207142</v>
+        <v>1.007107249463715</v>
       </c>
       <c r="F13">
-        <v>1.016892865677147</v>
+        <v>1.0151815931017</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046704080611942</v>
+        <v>1.045769123206089</v>
       </c>
       <c r="J13">
-        <v>1.021333827902288</v>
+        <v>1.019069087507319</v>
       </c>
       <c r="K13">
-        <v>1.030976426650349</v>
+        <v>1.029160914905815</v>
       </c>
       <c r="L13">
-        <v>1.023251129432837</v>
+        <v>1.022055959929994</v>
       </c>
       <c r="M13">
-        <v>1.031660454507845</v>
+        <v>1.029980527680958</v>
       </c>
       <c r="N13">
-        <v>1.022784239086536</v>
+        <v>1.020516282500438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9927794935656873</v>
+        <v>0.9898442625636734</v>
       </c>
       <c r="D14">
-        <v>1.017410023989691</v>
+        <v>1.015097466258122</v>
       </c>
       <c r="E14">
-        <v>1.009622274717658</v>
+        <v>1.007897655015801</v>
       </c>
       <c r="F14">
-        <v>1.018244776770723</v>
+        <v>1.016030782443239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047245932312536</v>
+        <v>1.046076639656474</v>
       </c>
       <c r="J14">
-        <v>1.022491858220965</v>
+        <v>1.019681988994597</v>
       </c>
       <c r="K14">
-        <v>1.032027464022261</v>
+        <v>1.029756777436143</v>
       </c>
       <c r="L14">
-        <v>1.024381716064606</v>
+        <v>1.022688929895096</v>
       </c>
       <c r="M14">
-        <v>1.032847163496902</v>
+        <v>1.030673165173777</v>
       </c>
       <c r="N14">
-        <v>1.023943913941094</v>
+        <v>1.021130054378128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9937173908065169</v>
+        <v>0.9904354955650755</v>
       </c>
       <c r="D15">
-        <v>1.018153795758602</v>
+        <v>1.015558355168199</v>
       </c>
       <c r="E15">
-        <v>1.010417060303427</v>
+        <v>1.008382961698145</v>
       </c>
       <c r="F15">
-        <v>1.019073169723839</v>
+        <v>1.016552144185804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047577529551479</v>
+        <v>1.046265049953508</v>
       </c>
       <c r="J15">
-        <v>1.023201203045762</v>
+        <v>1.020058120462894</v>
       </c>
       <c r="K15">
-        <v>1.032671217903894</v>
+        <v>1.030122377476864</v>
       </c>
       <c r="L15">
-        <v>1.025074312710547</v>
+        <v>1.023077441465939</v>
       </c>
       <c r="M15">
-        <v>1.033574158775872</v>
+        <v>1.031098286855895</v>
       </c>
       <c r="N15">
-        <v>1.024654266116906</v>
+        <v>1.021506719996253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.999095822699913</v>
+        <v>0.9938424585587886</v>
       </c>
       <c r="D16">
-        <v>1.02242118249989</v>
+        <v>1.018215142590523</v>
       </c>
       <c r="E16">
-        <v>1.014978381999787</v>
+        <v>1.011182412256985</v>
       </c>
       <c r="F16">
-        <v>1.023827341898824</v>
+        <v>1.019559001234041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049474107657741</v>
+        <v>1.047345725649946</v>
       </c>
       <c r="J16">
-        <v>1.027268460017239</v>
+        <v>1.022224953126248</v>
       </c>
       <c r="K16">
-        <v>1.036361556707421</v>
+        <v>1.032227389517746</v>
       </c>
       <c r="L16">
-        <v>1.029046463399558</v>
+        <v>1.025316564461832</v>
       </c>
       <c r="M16">
-        <v>1.037743857672581</v>
+        <v>1.033548201033207</v>
       </c>
       <c r="N16">
-        <v>1.028727299059803</v>
+        <v>1.023676629810528</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00240151954165</v>
+        <v>0.9959501789260913</v>
       </c>
       <c r="D17">
-        <v>1.025045760305672</v>
+        <v>1.019859504510342</v>
       </c>
       <c r="E17">
-        <v>1.017784858294674</v>
+        <v>1.012916762954177</v>
       </c>
       <c r="F17">
-        <v>1.026752452609146</v>
+        <v>1.021421345740458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050635322369225</v>
+        <v>1.048009809555487</v>
       </c>
       <c r="J17">
-        <v>1.029767722684801</v>
+        <v>1.023564880316028</v>
       </c>
       <c r="K17">
-        <v>1.0386284493495</v>
+        <v>1.033528059877722</v>
       </c>
       <c r="L17">
-        <v>1.031488078417302</v>
+        <v>1.026702042505756</v>
       </c>
       <c r="M17">
-        <v>1.040307128659092</v>
+        <v>1.035063924315427</v>
       </c>
       <c r="N17">
-        <v>1.031230110967022</v>
+        <v>1.02501845985061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00430623631364</v>
+        <v>0.9971692979215439</v>
       </c>
       <c r="D18">
-        <v>1.026558592752756</v>
+        <v>1.020810850286621</v>
       </c>
       <c r="E18">
-        <v>1.019402952821209</v>
+        <v>1.013920786800273</v>
       </c>
       <c r="F18">
-        <v>1.02843893842847</v>
+        <v>1.022499286385482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051302764809062</v>
+        <v>1.048392284979436</v>
       </c>
       <c r="J18">
-        <v>1.031207540566444</v>
+        <v>1.024339673967538</v>
       </c>
       <c r="K18">
-        <v>1.039934114057036</v>
+        <v>1.034279776554142</v>
       </c>
       <c r="L18">
-        <v>1.032894964970686</v>
+        <v>1.027503479136957</v>
       </c>
       <c r="M18">
-        <v>1.041784193485242</v>
+        <v>1.035940634386938</v>
       </c>
       <c r="N18">
-        <v>1.032671973555206</v>
+        <v>1.025794353797975</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004951817430306</v>
+        <v>0.9975832708819719</v>
       </c>
       <c r="D19">
-        <v>1.027071440833842</v>
+        <v>1.0211339335733</v>
       </c>
       <c r="E19">
-        <v>1.019951555866999</v>
+        <v>1.0142618648521</v>
       </c>
       <c r="F19">
-        <v>1.029010727610288</v>
+        <v>1.022865444453617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051528705007443</v>
+        <v>1.04852188160374</v>
       </c>
       <c r="J19">
-        <v>1.031695506046205</v>
+        <v>1.024602728074363</v>
       </c>
       <c r="K19">
-        <v>1.040376564451319</v>
+        <v>1.034534931009774</v>
       </c>
       <c r="L19">
-        <v>1.033371816590888</v>
+        <v>1.027775630359978</v>
       </c>
       <c r="M19">
-        <v>1.042284844507457</v>
+        <v>1.03623833531355</v>
       </c>
       <c r="N19">
-        <v>1.03316063200192</v>
+        <v>1.026057781471803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002049297636883</v>
+        <v>0.9957251104355833</v>
       </c>
       <c r="D20">
-        <v>1.024766050957809</v>
+        <v>1.019683889605691</v>
       </c>
       <c r="E20">
-        <v>1.017485720697082</v>
+        <v>1.01273147373913</v>
       </c>
       <c r="F20">
-        <v>1.026440670818582</v>
+        <v>1.02122240095244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05051176467436</v>
+        <v>1.047939065886085</v>
       </c>
       <c r="J20">
-        <v>1.029501450223029</v>
+        <v>1.023421822351614</v>
       </c>
       <c r="K20">
-        <v>1.038386963088434</v>
+        <v>1.03338923218037</v>
       </c>
       <c r="L20">
-        <v>1.031227918596292</v>
+        <v>1.026554089719739</v>
       </c>
       <c r="M20">
-        <v>1.040033997869214</v>
+        <v>1.034902069846446</v>
       </c>
       <c r="N20">
-        <v>1.030963460367813</v>
+        <v>1.024875198727478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9923297698535111</v>
+        <v>0.9895610714783726</v>
       </c>
       <c r="D21">
-        <v>1.017053425238154</v>
+        <v>1.01487672556068</v>
       </c>
       <c r="E21">
-        <v>1.00924123939445</v>
+        <v>1.007665253288205</v>
       </c>
       <c r="F21">
-        <v>1.017847629015947</v>
+        <v>1.01578110454796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047086842769873</v>
+        <v>1.045986305294952</v>
       </c>
       <c r="J21">
-        <v>1.022151717898629</v>
+        <v>1.019501817812405</v>
       </c>
       <c r="K21">
-        <v>1.031718761010333</v>
+        <v>1.029581630669867</v>
       </c>
       <c r="L21">
-        <v>1.0240496235326</v>
+        <v>1.022502845868895</v>
       </c>
       <c r="M21">
-        <v>1.032498582079009</v>
+        <v>1.030469542525802</v>
       </c>
       <c r="N21">
-        <v>1.023603290580486</v>
+        <v>1.020949627332192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9859832431908059</v>
+        <v>0.9855861057445765</v>
       </c>
       <c r="D22">
-        <v>1.012024047847943</v>
+        <v>1.011779601636694</v>
       </c>
       <c r="E22">
-        <v>1.003868646364643</v>
+        <v>1.0044067572805</v>
       </c>
       <c r="F22">
-        <v>1.012247823661688</v>
+        <v>1.012279691022796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044835958654286</v>
+        <v>1.044712463397484</v>
       </c>
       <c r="J22">
-        <v>1.017351216244451</v>
+        <v>1.016972239370875</v>
       </c>
       <c r="K22">
-        <v>1.027361010946142</v>
+        <v>1.027121259273327</v>
       </c>
       <c r="L22">
-        <v>1.019363852220375</v>
+        <v>1.019891418028914</v>
       </c>
       <c r="M22">
-        <v>1.027580491794554</v>
+        <v>1.02761174772247</v>
       </c>
       <c r="N22">
-        <v>1.018795971663334</v>
+        <v>1.018416456599128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9893712492078388</v>
+        <v>0.9877030760427946</v>
       </c>
       <c r="D23">
-        <v>1.014708212330529</v>
+        <v>1.013428754195421</v>
       </c>
       <c r="E23">
-        <v>1.006735658975379</v>
+        <v>1.006141323383288</v>
       </c>
       <c r="F23">
-        <v>1.015236091252608</v>
+        <v>1.014143726241329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04603888292294</v>
+        <v>1.045392226877455</v>
       </c>
       <c r="J23">
-        <v>1.019913983035786</v>
+        <v>1.018319572216946</v>
       </c>
       <c r="K23">
-        <v>1.029687623240678</v>
+        <v>1.028432035444827</v>
       </c>
       <c r="L23">
-        <v>1.021865103927184</v>
+        <v>1.021282077600224</v>
       </c>
       <c r="M23">
-        <v>1.030205676607677</v>
+        <v>1.029133658854246</v>
       </c>
       <c r="N23">
-        <v>1.021362377877466</v>
+        <v>1.019765702812382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002208523736316</v>
+        <v>0.9958268408912524</v>
       </c>
       <c r="D24">
-        <v>1.02489249513391</v>
+        <v>1.019763266425183</v>
       </c>
       <c r="E24">
-        <v>1.017620946233703</v>
+        <v>1.012815221376552</v>
       </c>
       <c r="F24">
-        <v>1.026581612204636</v>
+        <v>1.021312321237271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050567625503216</v>
+        <v>1.047971046942954</v>
       </c>
       <c r="J24">
-        <v>1.029621822602435</v>
+        <v>1.023486484946458</v>
       </c>
       <c r="K24">
-        <v>1.038496131391298</v>
+        <v>1.033451983854739</v>
       </c>
       <c r="L24">
-        <v>1.031345526800419</v>
+        <v>1.026620963845339</v>
       </c>
       <c r="M24">
-        <v>1.040157469503418</v>
+        <v>1.034975227692464</v>
       </c>
       <c r="N24">
-        <v>1.031084003689804</v>
+        <v>1.024939953150622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016194783207016</v>
+        <v>1.00485366019945</v>
       </c>
       <c r="D25">
-        <v>1.036009609431108</v>
+        <v>1.026810746449845</v>
       </c>
       <c r="E25">
-        <v>1.029519196574505</v>
+        <v>1.020264042968288</v>
       </c>
       <c r="F25">
-        <v>1.038982606349737</v>
+        <v>1.029306369850647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055438758614001</v>
+        <v>1.050773357888683</v>
       </c>
       <c r="J25">
-        <v>1.040189155304445</v>
+        <v>1.02921877616529</v>
       </c>
       <c r="K25">
-        <v>1.048073505844964</v>
+        <v>1.039006643366706</v>
       </c>
       <c r="L25">
-        <v>1.041675917763283</v>
+        <v>1.032555724106383</v>
       </c>
       <c r="M25">
-        <v>1.05100447286412</v>
+        <v>1.041466159964099</v>
       </c>
       <c r="N25">
-        <v>1.04166634321634</v>
+        <v>1.030680384880488</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011762605007873</v>
+        <v>1.006603667378079</v>
       </c>
       <c r="D2">
-        <v>1.032208743837549</v>
+        <v>1.028788772118352</v>
       </c>
       <c r="E2">
-        <v>1.025989137616941</v>
+        <v>1.021680136570792</v>
       </c>
       <c r="F2">
-        <v>1.035445099156419</v>
+        <v>1.031347713047456</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052865239322504</v>
+        <v>1.051128589051765</v>
       </c>
       <c r="J2">
-        <v>1.033597101608424</v>
+        <v>1.028588642054851</v>
       </c>
       <c r="K2">
-        <v>1.043236880754228</v>
+        <v>1.039861090123306</v>
       </c>
       <c r="L2">
-        <v>1.037097897472165</v>
+        <v>1.03284547455951</v>
       </c>
       <c r="M2">
-        <v>1.046431762882789</v>
+        <v>1.042386938714891</v>
       </c>
       <c r="N2">
-        <v>1.035064928047952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013450464301783</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039255521390039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016624724239837</v>
+        <v>1.010359721441985</v>
       </c>
       <c r="D3">
-        <v>1.036008468895067</v>
+        <v>1.031415026255006</v>
       </c>
       <c r="E3">
-        <v>1.030030841439955</v>
+        <v>1.024707968268735</v>
       </c>
       <c r="F3">
-        <v>1.03977572426404</v>
+        <v>1.034566979865497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054305606524358</v>
+        <v>1.051970621501298</v>
       </c>
       <c r="J3">
-        <v>1.036672218646134</v>
+        <v>1.030571899520631</v>
       </c>
       <c r="K3">
-        <v>1.046200447526547</v>
+        <v>1.04166112576053</v>
       </c>
       <c r="L3">
-        <v>1.04029336698113</v>
+        <v>1.035034173090617</v>
       </c>
       <c r="M3">
-        <v>1.049923757577298</v>
+        <v>1.044775878360982</v>
       </c>
       <c r="N3">
-        <v>1.038144412104577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014112490007753</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040525639248239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019703706909706</v>
+        <v>1.012747969222051</v>
       </c>
       <c r="D4">
-        <v>1.038414679531111</v>
+        <v>1.033086270072737</v>
       </c>
       <c r="E4">
-        <v>1.032595830354291</v>
+        <v>1.026638815371718</v>
       </c>
       <c r="F4">
-        <v>1.042522655278767</v>
+        <v>1.036618797343825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055202654341296</v>
+        <v>1.052492200339298</v>
       </c>
       <c r="J4">
-        <v>1.03861647500454</v>
+        <v>1.031831107968369</v>
       </c>
       <c r="K4">
-        <v>1.048070567806752</v>
+        <v>1.042801121931507</v>
       </c>
       <c r="L4">
-        <v>1.042316146992203</v>
+        <v>1.036426022371454</v>
       </c>
       <c r="M4">
-        <v>1.052133590226327</v>
+        <v>1.046294475407412</v>
       </c>
       <c r="N4">
-        <v>1.040091429530022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01453286880666</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041332606854703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020982638198914</v>
+        <v>1.013744753849247</v>
       </c>
       <c r="D5">
-        <v>1.039414097128536</v>
+        <v>1.033785679518689</v>
       </c>
       <c r="E5">
-        <v>1.033662543890875</v>
+        <v>1.027446455165104</v>
       </c>
       <c r="F5">
-        <v>1.043664695917489</v>
+        <v>1.037476965261589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05557159220048</v>
+        <v>1.052707696126835</v>
       </c>
       <c r="J5">
-        <v>1.039423289553979</v>
+        <v>1.032357351073691</v>
       </c>
       <c r="K5">
-        <v>1.048845734311835</v>
+        <v>1.043277929593607</v>
       </c>
       <c r="L5">
-        <v>1.043156129073682</v>
+        <v>1.037007949633786</v>
       </c>
       <c r="M5">
-        <v>1.053051088282086</v>
+        <v>1.046929372619365</v>
       </c>
       <c r="N5">
-        <v>1.040899389848663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014708835741094</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041676903392992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021196485864942</v>
+        <v>1.01391466675369</v>
       </c>
       <c r="D6">
-        <v>1.039581202504766</v>
+        <v>1.033906854111432</v>
       </c>
       <c r="E6">
-        <v>1.033840981065579</v>
+        <v>1.027584736971796</v>
       </c>
       <c r="F6">
-        <v>1.043855713805273</v>
+        <v>1.037624117412472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055633064076835</v>
+        <v>1.052745655415252</v>
       </c>
       <c r="J6">
-        <v>1.039558148506146</v>
+        <v>1.032448423925632</v>
       </c>
       <c r="K6">
-        <v>1.048975250829693</v>
+        <v>1.043361728312517</v>
       </c>
       <c r="L6">
-        <v>1.043296566195642</v>
+        <v>1.037108352113274</v>
       </c>
       <c r="M6">
-        <v>1.053204475863675</v>
+        <v>1.047039052552689</v>
       </c>
       <c r="N6">
-        <v>1.041034440316011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014739623129406</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04174488027177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019720856080759</v>
+        <v>1.012769662279536</v>
       </c>
       <c r="D7">
-        <v>1.03842808102819</v>
+        <v>1.033106644472602</v>
       </c>
       <c r="E7">
-        <v>1.032610128895638</v>
+        <v>1.026657816428678</v>
       </c>
       <c r="F7">
-        <v>1.042537964859166</v>
+        <v>1.036639597226283</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055207616008476</v>
+        <v>1.052500698065024</v>
       </c>
       <c r="J7">
-        <v>1.038627296702088</v>
+        <v>1.03184629145239</v>
       </c>
       <c r="K7">
-        <v>1.048080968529203</v>
+        <v>1.042818396429201</v>
       </c>
       <c r="L7">
-        <v>1.042327411260582</v>
+        <v>1.036441911401161</v>
       </c>
       <c r="M7">
-        <v>1.052145894629375</v>
+        <v>1.046312185631982</v>
       </c>
       <c r="N7">
-        <v>1.040102266595621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01453885216656</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.0413648901256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013420052346454</v>
+        <v>1.007892198554075</v>
       </c>
       <c r="D8">
-        <v>1.033503993931115</v>
+        <v>1.029695642037319</v>
       </c>
       <c r="E8">
-        <v>1.027365720988109</v>
+        <v>1.022719446081321</v>
       </c>
       <c r="F8">
-        <v>1.036920385495433</v>
+        <v>1.032453625138529</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053359375852144</v>
+        <v>1.051424823951701</v>
       </c>
       <c r="J8">
-        <v>1.03464600237716</v>
+        <v>1.02927391587783</v>
       </c>
       <c r="K8">
-        <v>1.044248479441019</v>
+        <v>1.04048784727051</v>
       </c>
       <c r="L8">
-        <v>1.038187338499266</v>
+        <v>1.033600216861736</v>
       </c>
       <c r="M8">
-        <v>1.047622434037523</v>
+        <v>1.043211228240561</v>
       </c>
       <c r="N8">
-        <v>1.036115318376091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013680382079727</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03972156785886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001774434009755</v>
+        <v>0.9989472970507056</v>
       </c>
       <c r="D9">
-        <v>1.024405881175369</v>
+        <v>1.023445027155787</v>
       </c>
       <c r="E9">
-        <v>1.017719159603983</v>
+        <v>1.015540649082501</v>
       </c>
       <c r="F9">
-        <v>1.026576072433979</v>
+        <v>1.024813933560366</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049825644535934</v>
+        <v>1.049338717873314</v>
       </c>
       <c r="J9">
-        <v>1.027264687666272</v>
+        <v>1.024537283816924</v>
       </c>
       <c r="K9">
-        <v>1.037115022163749</v>
+        <v>1.036168841919046</v>
       </c>
       <c r="L9">
-        <v>1.030531151463793</v>
+        <v>1.028386523322028</v>
       </c>
       <c r="M9">
-        <v>1.039252199956317</v>
+        <v>1.037516853550395</v>
       </c>
       <c r="N9">
-        <v>1.028723521351664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012098533286338</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036664571447074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9936028531091724</v>
+        <v>0.9927391852343296</v>
       </c>
       <c r="D10">
-        <v>1.018028246034908</v>
+        <v>1.019120216360437</v>
       </c>
       <c r="E10">
-        <v>1.010985371056135</v>
+        <v>1.010592414244831</v>
       </c>
       <c r="F10">
-        <v>1.019347394011944</v>
+        <v>1.019542155557722</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047270011363071</v>
+        <v>1.047822519994241</v>
       </c>
       <c r="J10">
-        <v>1.022072600424258</v>
+        <v>1.021243871092699</v>
       </c>
       <c r="K10">
-        <v>1.032079449456607</v>
+        <v>1.033152622691803</v>
       </c>
       <c r="L10">
-        <v>1.025159074074774</v>
+        <v>1.024773017297325</v>
       </c>
       <c r="M10">
-        <v>1.033375896267269</v>
+        <v>1.03356731260227</v>
       </c>
       <c r="N10">
-        <v>1.023524060750227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010999447722807</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034548732401202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9899572538938821</v>
+        <v>0.9899972295266606</v>
       </c>
       <c r="D11">
-        <v>1.015185543514985</v>
+        <v>1.017219115708359</v>
       </c>
       <c r="E11">
-        <v>1.007990391198587</v>
+        <v>1.008417258587101</v>
       </c>
       <c r="F11">
-        <v>1.016130410551157</v>
+        <v>1.017223658514428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046112666444359</v>
+        <v>1.047140911845031</v>
       </c>
       <c r="J11">
-        <v>1.019753874241113</v>
+        <v>1.019792138427385</v>
       </c>
       <c r="K11">
-        <v>1.029826654377539</v>
+        <v>1.031823449956456</v>
       </c>
       <c r="L11">
-        <v>1.02276317739932</v>
+        <v>1.0231821645389</v>
       </c>
       <c r="M11">
-        <v>1.030754409936765</v>
+        <v>1.031827910821057</v>
       </c>
       <c r="N11">
-        <v>1.021202041709939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010516450934573</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033641837070586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9885860304207447</v>
+        <v>0.9889632722915341</v>
       </c>
       <c r="D12">
-        <v>1.014116793498773</v>
+        <v>1.01649964392766</v>
       </c>
       <c r="E12">
-        <v>1.006865341753649</v>
+        <v>1.007597338099214</v>
       </c>
       <c r="F12">
-        <v>1.014921679068688</v>
+        <v>1.016349283661935</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045674844807857</v>
+        <v>1.046879398247309</v>
       </c>
       <c r="J12">
-        <v>1.018881430436889</v>
+        <v>1.019242184025529</v>
       </c>
       <c r="K12">
-        <v>1.02897844501338</v>
+        <v>1.031317419721428</v>
       </c>
       <c r="L12">
-        <v>1.021862184106844</v>
+        <v>1.022580418322715</v>
       </c>
       <c r="M12">
-        <v>1.029768480097682</v>
+        <v>1.031169820136249</v>
       </c>
       <c r="N12">
-        <v>1.020328358935443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010332764230523</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033284056014128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9888809521099683</v>
+        <v>0.9891844462674189</v>
       </c>
       <c r="D13">
-        <v>1.014346636222122</v>
+        <v>1.016652907935974</v>
       </c>
       <c r="E13">
-        <v>1.007107249463715</v>
+        <v>1.007772465134633</v>
       </c>
       <c r="F13">
-        <v>1.0151815931017</v>
+        <v>1.016536016367609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045769123206089</v>
+        <v>1.046935027442736</v>
       </c>
       <c r="J13">
-        <v>1.019069087507319</v>
+        <v>1.019359375230125</v>
       </c>
       <c r="K13">
-        <v>1.029160914905815</v>
+        <v>1.031424883842405</v>
       </c>
       <c r="L13">
-        <v>1.022055959929994</v>
+        <v>1.022708717685377</v>
       </c>
       <c r="M13">
-        <v>1.029980527680958</v>
+        <v>1.031310130344462</v>
       </c>
       <c r="N13">
-        <v>1.020516282500438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010371759647529</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033357538693938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898442625636734</v>
+        <v>0.9899115101743309</v>
       </c>
       <c r="D14">
-        <v>1.015097466258122</v>
+        <v>1.017159194331373</v>
       </c>
       <c r="E14">
-        <v>1.007897655015801</v>
+        <v>1.00834917028654</v>
       </c>
       <c r="F14">
-        <v>1.016030782443239</v>
+        <v>1.017151037160009</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046076639656474</v>
+        <v>1.047119100223886</v>
       </c>
       <c r="J14">
-        <v>1.019681988994597</v>
+        <v>1.019746352632354</v>
       </c>
       <c r="K14">
-        <v>1.029756777436143</v>
+        <v>1.031781163914652</v>
       </c>
       <c r="L14">
-        <v>1.022688929895096</v>
+        <v>1.023132097249248</v>
       </c>
       <c r="M14">
-        <v>1.030673165173777</v>
+        <v>1.031773154096489</v>
       </c>
       <c r="N14">
-        <v>1.021130054378128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010501095807496</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03361086922194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9904354955650755</v>
+        <v>0.9903602728390075</v>
       </c>
       <c r="D15">
-        <v>1.015558355168199</v>
+        <v>1.017472988138715</v>
       </c>
       <c r="E15">
-        <v>1.008382961698145</v>
+        <v>1.008705705618919</v>
       </c>
       <c r="F15">
-        <v>1.016552144185804</v>
+        <v>1.01753130535826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046265049953508</v>
+        <v>1.047233239914257</v>
       </c>
       <c r="J15">
-        <v>1.020058120462894</v>
+        <v>1.019986094769878</v>
       </c>
       <c r="K15">
-        <v>1.030122377476864</v>
+        <v>1.032002604050131</v>
       </c>
       <c r="L15">
-        <v>1.023077441465939</v>
+        <v>1.023394265589131</v>
       </c>
       <c r="M15">
-        <v>1.031098286855895</v>
+        <v>1.032059875935225</v>
       </c>
       <c r="N15">
-        <v>1.021506719996253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010581513012732</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033773318945011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938424585587886</v>
+        <v>0.9929383044782749</v>
       </c>
       <c r="D16">
-        <v>1.018215142590523</v>
+        <v>1.019269073970035</v>
       </c>
       <c r="E16">
-        <v>1.011182412256985</v>
+        <v>1.010754025743401</v>
       </c>
       <c r="F16">
-        <v>1.019559001234041</v>
+        <v>1.01971509507002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047345725649946</v>
+        <v>1.04787901159624</v>
       </c>
       <c r="J16">
-        <v>1.022224953126248</v>
+        <v>1.021357235238372</v>
       </c>
       <c r="K16">
-        <v>1.032227389517746</v>
+        <v>1.033263239367455</v>
       </c>
       <c r="L16">
-        <v>1.025316564461832</v>
+        <v>1.024895674607252</v>
       </c>
       <c r="M16">
-        <v>1.033548201033207</v>
+        <v>1.03370162295345</v>
       </c>
       <c r="N16">
-        <v>1.023676629810528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011039637998709</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034667806583884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9959501789260913</v>
+        <v>0.9945379854397156</v>
       </c>
       <c r="D17">
-        <v>1.019859504510342</v>
+        <v>1.020384499678898</v>
       </c>
       <c r="E17">
-        <v>1.012916762954177</v>
+        <v>1.012027299049196</v>
       </c>
       <c r="F17">
-        <v>1.021421345740458</v>
+        <v>1.021072207263317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048009809555487</v>
+        <v>1.04827556048169</v>
       </c>
       <c r="J17">
-        <v>1.023564880316028</v>
+        <v>1.02220769113278</v>
       </c>
       <c r="K17">
-        <v>1.033528059877722</v>
+        <v>1.034044311815172</v>
       </c>
       <c r="L17">
-        <v>1.026702042505756</v>
+        <v>1.025827682047884</v>
       </c>
       <c r="M17">
-        <v>1.035063924315427</v>
+        <v>1.034720583884048</v>
       </c>
       <c r="N17">
-        <v>1.02501845985061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011323811418741</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035222644114012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9971692979215439</v>
+        <v>0.9954591886104356</v>
       </c>
       <c r="D18">
-        <v>1.020810850286621</v>
+        <v>1.021023833402333</v>
       </c>
       <c r="E18">
-        <v>1.013920786800273</v>
+        <v>1.012760281525859</v>
       </c>
       <c r="F18">
-        <v>1.022499286385482</v>
+        <v>1.021853081925978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048392284979436</v>
+        <v>1.048500121275399</v>
       </c>
       <c r="J18">
-        <v>1.024339673967538</v>
+        <v>1.022694846766567</v>
       </c>
       <c r="K18">
-        <v>1.034279776554142</v>
+        <v>1.034489274423564</v>
       </c>
       <c r="L18">
-        <v>1.027503479136957</v>
+        <v>1.026362331941143</v>
       </c>
       <c r="M18">
-        <v>1.035940634386938</v>
+        <v>1.035304970947787</v>
       </c>
       <c r="N18">
-        <v>1.025794353797975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011485852944781</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035525595375159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9975832708819719</v>
+        <v>0.9957766850271017</v>
       </c>
       <c r="D19">
-        <v>1.0211339335733</v>
+        <v>1.021246812652541</v>
       </c>
       <c r="E19">
-        <v>1.0142618648521</v>
+        <v>1.013013860247133</v>
       </c>
       <c r="F19">
-        <v>1.022865444453617</v>
+        <v>1.022123391263498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04852188160374</v>
+        <v>1.048579038355104</v>
       </c>
       <c r="J19">
-        <v>1.024602728074363</v>
+        <v>1.022864632614014</v>
       </c>
       <c r="K19">
-        <v>1.034534931009774</v>
+        <v>1.034645974060234</v>
       </c>
       <c r="L19">
-        <v>1.027775630359978</v>
+        <v>1.026548316411669</v>
       </c>
       <c r="M19">
-        <v>1.03623833531355</v>
+        <v>1.03550831245273</v>
       </c>
       <c r="N19">
-        <v>1.026057781471803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011542910656723</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035642787339053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9957251104355833</v>
+        <v>0.9943665502625632</v>
       </c>
       <c r="D20">
-        <v>1.019683889605691</v>
+        <v>1.020264670920659</v>
       </c>
       <c r="E20">
-        <v>1.01273147373913</v>
+        <v>1.011890678511768</v>
       </c>
       <c r="F20">
-        <v>1.02122240095244</v>
+        <v>1.02092658704046</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047939065886085</v>
+        <v>1.048233043098854</v>
       </c>
       <c r="J20">
-        <v>1.023421822351614</v>
+        <v>1.022116372571904</v>
       </c>
       <c r="K20">
-        <v>1.03338923218037</v>
+        <v>1.033960310071223</v>
       </c>
       <c r="L20">
-        <v>1.026554089719739</v>
+        <v>1.025727618109293</v>
       </c>
       <c r="M20">
-        <v>1.034902069846446</v>
+        <v>1.034611184545091</v>
       </c>
       <c r="N20">
-        <v>1.024875198727478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011293239119071</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035161914739257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895610714783726</v>
+        <v>0.9897037301970812</v>
       </c>
       <c r="D21">
-        <v>1.01487672556068</v>
+        <v>1.017017927876074</v>
       </c>
       <c r="E21">
-        <v>1.007665253288205</v>
+        <v>1.008185453252342</v>
       </c>
       <c r="F21">
-        <v>1.01578110454796</v>
+        <v>1.01697664777098</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045986305294952</v>
+        <v>1.047068894489041</v>
       </c>
       <c r="J21">
-        <v>1.019501817812405</v>
+        <v>1.01963833220229</v>
       </c>
       <c r="K21">
-        <v>1.029581630669867</v>
+        <v>1.031683907173258</v>
       </c>
       <c r="L21">
-        <v>1.022502845868895</v>
+        <v>1.0230133915723</v>
       </c>
       <c r="M21">
-        <v>1.030469542525802</v>
+        <v>1.031643375500915</v>
       </c>
       <c r="N21">
-        <v>1.020949627332192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010465810702703</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03355564575119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9855861057445765</v>
+        <v>0.9867059802658322</v>
       </c>
       <c r="D22">
-        <v>1.011779601636694</v>
+        <v>1.014929634080962</v>
       </c>
       <c r="E22">
-        <v>1.0044067572805</v>
+        <v>1.005809681212664</v>
       </c>
       <c r="F22">
-        <v>1.012279691022796</v>
+        <v>1.014442486096212</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044712463397484</v>
+        <v>1.046303980237311</v>
       </c>
       <c r="J22">
-        <v>1.016972239370875</v>
+        <v>1.018040957317301</v>
       </c>
       <c r="K22">
-        <v>1.027121259273327</v>
+        <v>1.030211022552229</v>
       </c>
       <c r="L22">
-        <v>1.019891418028914</v>
+        <v>1.021266919108707</v>
       </c>
       <c r="M22">
-        <v>1.02761174772247</v>
+        <v>1.029733163097978</v>
       </c>
       <c r="N22">
-        <v>1.018416456599128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009931478116884</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03250072167714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877030760427946</v>
+        <v>0.9882936237747898</v>
       </c>
       <c r="D23">
-        <v>1.013428754195421</v>
+        <v>1.016031183118219</v>
       </c>
       <c r="E23">
-        <v>1.006141323383288</v>
+        <v>1.007065813283705</v>
       </c>
       <c r="F23">
-        <v>1.014143726241329</v>
+        <v>1.015782250325051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045392226877455</v>
+        <v>1.046707570104372</v>
       </c>
       <c r="J23">
-        <v>1.018319572216946</v>
+        <v>1.018883966701925</v>
       </c>
       <c r="K23">
-        <v>1.028432035444827</v>
+        <v>1.030985994342582</v>
       </c>
       <c r="L23">
-        <v>1.021282077600224</v>
+        <v>1.022188983463409</v>
       </c>
       <c r="M23">
-        <v>1.029133658854246</v>
+        <v>1.030741683891309</v>
       </c>
       <c r="N23">
-        <v>1.019765702812382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010212481496225</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033039006943911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9958268408912524</v>
+        <v>0.9944320115826435</v>
       </c>
       <c r="D24">
-        <v>1.019763266425183</v>
+        <v>1.020303485947326</v>
       </c>
       <c r="E24">
-        <v>1.012815221376552</v>
+        <v>1.011940631231748</v>
       </c>
       <c r="F24">
-        <v>1.021312321237271</v>
+        <v>1.020979345607246</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047971046942954</v>
+        <v>1.048244497937153</v>
       </c>
       <c r="J24">
-        <v>1.023486484946458</v>
+        <v>1.022146094284587</v>
       </c>
       <c r="K24">
-        <v>1.033451983854739</v>
+        <v>1.033983190556416</v>
       </c>
       <c r="L24">
-        <v>1.026620963845339</v>
+        <v>1.025761251361248</v>
       </c>
       <c r="M24">
-        <v>1.034975227692464</v>
+        <v>1.034647791724837</v>
       </c>
       <c r="N24">
-        <v>1.024939953150622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011301624714199</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035150661146091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00485366019945</v>
+        <v>1.001314581220968</v>
       </c>
       <c r="D25">
-        <v>1.026810746449845</v>
+        <v>1.02510501359771</v>
       </c>
       <c r="E25">
-        <v>1.020264042968288</v>
+        <v>1.017437174072769</v>
       </c>
       <c r="F25">
-        <v>1.029306369850647</v>
+        <v>1.026833918018409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050773357888683</v>
+        <v>1.04990842428131</v>
       </c>
       <c r="J25">
-        <v>1.02921877616529</v>
+        <v>1.025797785310762</v>
       </c>
       <c r="K25">
-        <v>1.039006643366706</v>
+        <v>1.03732571743655</v>
       </c>
       <c r="L25">
-        <v>1.032555724106383</v>
+        <v>1.029770699236024</v>
       </c>
       <c r="M25">
-        <v>1.041466159964099</v>
+        <v>1.03902947866444</v>
       </c>
       <c r="N25">
-        <v>1.030680384880488</v>
+        <v>1.01252100072486</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037511135753239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006603667378079</v>
+        <v>1.006149245137943</v>
       </c>
       <c r="D2">
-        <v>1.028788772118352</v>
+        <v>1.027843051047735</v>
       </c>
       <c r="E2">
-        <v>1.021680136570792</v>
+        <v>1.021200075143781</v>
       </c>
       <c r="F2">
-        <v>1.031347713047456</v>
+        <v>1.030650302315061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051128589051765</v>
+        <v>1.050648388272597</v>
       </c>
       <c r="J2">
-        <v>1.028588642054851</v>
+        <v>1.028147576139517</v>
       </c>
       <c r="K2">
-        <v>1.039861090123306</v>
+        <v>1.038927651368626</v>
       </c>
       <c r="L2">
-        <v>1.03284547455951</v>
+        <v>1.032371753522044</v>
       </c>
       <c r="M2">
-        <v>1.042386938714891</v>
+        <v>1.041698526549189</v>
       </c>
       <c r="N2">
-        <v>1.013450464301783</v>
+        <v>1.014675316186201</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039255521390039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038604267282122</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022446202696823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010359721441985</v>
+        <v>1.00975300693295</v>
       </c>
       <c r="D3">
-        <v>1.031415026255006</v>
+        <v>1.030276173007287</v>
       </c>
       <c r="E3">
-        <v>1.024707968268735</v>
+        <v>1.024084061631044</v>
       </c>
       <c r="F3">
-        <v>1.034566979865497</v>
+        <v>1.033701140892288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051970621501298</v>
+        <v>1.051391756186588</v>
       </c>
       <c r="J3">
-        <v>1.030571899520631</v>
+        <v>1.02998128067352</v>
       </c>
       <c r="K3">
-        <v>1.04166112576053</v>
+        <v>1.040535783225756</v>
       </c>
       <c r="L3">
-        <v>1.035034173090617</v>
+        <v>1.034417784253506</v>
       </c>
       <c r="M3">
-        <v>1.044775878360982</v>
+        <v>1.043920230490718</v>
       </c>
       <c r="N3">
-        <v>1.014112490007753</v>
+        <v>1.015162132741107</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040525639248239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039738415011095</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022771301046981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012747969222051</v>
+        <v>1.012045424365422</v>
       </c>
       <c r="D4">
-        <v>1.033086270072737</v>
+        <v>1.031825332111732</v>
       </c>
       <c r="E4">
-        <v>1.026638815371718</v>
+        <v>1.025924226225123</v>
       </c>
       <c r="F4">
-        <v>1.036618797343825</v>
+        <v>1.035646682467723</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052492200339298</v>
+        <v>1.051850844186559</v>
       </c>
       <c r="J4">
-        <v>1.031831107968369</v>
+        <v>1.031145946399969</v>
       </c>
       <c r="K4">
-        <v>1.042801121931507</v>
+        <v>1.041554247024128</v>
       </c>
       <c r="L4">
-        <v>1.036426022371454</v>
+        <v>1.035719521546028</v>
       </c>
       <c r="M4">
-        <v>1.046294475407412</v>
+        <v>1.045333107985039</v>
       </c>
       <c r="N4">
-        <v>1.01453286880666</v>
+        <v>1.015471395875974</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041332606854703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040459530456354</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02297473632949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013744753849247</v>
+        <v>1.013002467075219</v>
       </c>
       <c r="D5">
-        <v>1.033785679518689</v>
+        <v>1.032474038050243</v>
       </c>
       <c r="E5">
-        <v>1.027446455165104</v>
+        <v>1.026694227406397</v>
       </c>
       <c r="F5">
-        <v>1.037476965261589</v>
+        <v>1.036460736026878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052707696126835</v>
+        <v>1.052040357575003</v>
       </c>
       <c r="J5">
-        <v>1.032357351073691</v>
+        <v>1.031632884915952</v>
       </c>
       <c r="K5">
-        <v>1.043277929593607</v>
+        <v>1.04198052978979</v>
       </c>
       <c r="L5">
-        <v>1.037007949633786</v>
+        <v>1.036264008321771</v>
       </c>
       <c r="M5">
-        <v>1.046929372619365</v>
+        <v>1.045924077579355</v>
       </c>
       <c r="N5">
-        <v>1.014708835741094</v>
+        <v>1.015600924768727</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041676903392992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040768812515952</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023059616557308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01391466675369</v>
+        <v>1.013165652111903</v>
       </c>
       <c r="D6">
-        <v>1.033906854111432</v>
+        <v>1.032586683890858</v>
       </c>
       <c r="E6">
-        <v>1.027584736971796</v>
+        <v>1.026826140929068</v>
       </c>
       <c r="F6">
-        <v>1.037624117412472</v>
+        <v>1.036600446336186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052745655415252</v>
+        <v>1.052073944818031</v>
       </c>
       <c r="J6">
-        <v>1.032448423925632</v>
+        <v>1.031717299429918</v>
       </c>
       <c r="K6">
-        <v>1.043361728312517</v>
+        <v>1.042055827136576</v>
       </c>
       <c r="L6">
-        <v>1.037108352113274</v>
+        <v>1.036358074208336</v>
       </c>
       <c r="M6">
-        <v>1.047039052552689</v>
+        <v>1.04602634499961</v>
       </c>
       <c r="N6">
-        <v>1.014739623129406</v>
+        <v>1.015623639739778</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04174488027177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040831647066258</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023074974474376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012769662279536</v>
+        <v>1.012073868612734</v>
       </c>
       <c r="D7">
-        <v>1.033106644472602</v>
+        <v>1.031850132277429</v>
       </c>
       <c r="E7">
-        <v>1.026657816428678</v>
+        <v>1.025949092962084</v>
       </c>
       <c r="F7">
-        <v>1.036639597226283</v>
+        <v>1.035672911782779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052500698065024</v>
+        <v>1.051861590309215</v>
       </c>
       <c r="J7">
-        <v>1.03184629145239</v>
+        <v>1.031167706597801</v>
       </c>
       <c r="K7">
-        <v>1.042818396429201</v>
+        <v>1.041575892503924</v>
       </c>
       <c r="L7">
-        <v>1.036441911401161</v>
+        <v>1.035741206763099</v>
       </c>
       <c r="M7">
-        <v>1.046312185631982</v>
+        <v>1.045356183461935</v>
       </c>
       <c r="N7">
-        <v>1.01453885216656</v>
+        <v>1.015503711026942</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0413648901256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040496903320693</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022980587293335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007892198554075</v>
+        <v>1.007408538994998</v>
       </c>
       <c r="D8">
-        <v>1.029695642037319</v>
+        <v>1.028699992862631</v>
       </c>
       <c r="E8">
-        <v>1.022719446081321</v>
+        <v>1.022210231177768</v>
       </c>
       <c r="F8">
-        <v>1.032453625138529</v>
+        <v>1.0317175689812</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051424823951701</v>
+        <v>1.050919095305501</v>
       </c>
       <c r="J8">
-        <v>1.02927391587783</v>
+        <v>1.028803996445946</v>
       </c>
       <c r="K8">
-        <v>1.04048784727051</v>
+        <v>1.039504746553426</v>
       </c>
       <c r="L8">
-        <v>1.033600216861736</v>
+        <v>1.033097525811409</v>
       </c>
       <c r="M8">
-        <v>1.043211228240561</v>
+        <v>1.042484384206847</v>
       </c>
       <c r="N8">
-        <v>1.013680382079727</v>
+        <v>1.014928990553149</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03972156785886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039037464878942</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022566052635142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989472970507056</v>
+        <v>0.9988359898308421</v>
       </c>
       <c r="D9">
-        <v>1.023445027155787</v>
+        <v>1.022915823089058</v>
       </c>
       <c r="E9">
-        <v>1.015540649082501</v>
+        <v>1.015381736181245</v>
       </c>
       <c r="F9">
-        <v>1.024813933560366</v>
+        <v>1.024486739999249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049338717873314</v>
+        <v>1.049070543512024</v>
       </c>
       <c r="J9">
-        <v>1.024537283816924</v>
+        <v>1.024429919363159</v>
       </c>
       <c r="K9">
-        <v>1.036168841919046</v>
+        <v>1.035647734661087</v>
       </c>
       <c r="L9">
-        <v>1.028386523322028</v>
+        <v>1.028230089267285</v>
       </c>
       <c r="M9">
-        <v>1.037516853550395</v>
+        <v>1.037194647745352</v>
       </c>
       <c r="N9">
-        <v>1.012098533286338</v>
+        <v>1.013776835056309</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036664571447074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036306855944998</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021771523052185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9927391852343296</v>
+        <v>0.9929270181352035</v>
       </c>
       <c r="D10">
-        <v>1.019120216360437</v>
+        <v>1.01894313135525</v>
       </c>
       <c r="E10">
-        <v>1.010592414244831</v>
+        <v>1.010711412968637</v>
       </c>
       <c r="F10">
-        <v>1.019542155557722</v>
+        <v>1.019532216615489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047822519994241</v>
+        <v>1.047732917867235</v>
       </c>
       <c r="J10">
-        <v>1.021243871092699</v>
+        <v>1.021424098124281</v>
       </c>
       <c r="K10">
-        <v>1.033152622691803</v>
+        <v>1.032978582475289</v>
       </c>
       <c r="L10">
-        <v>1.024773017297325</v>
+        <v>1.024889925756681</v>
       </c>
       <c r="M10">
-        <v>1.03356731260227</v>
+        <v>1.033557544330617</v>
       </c>
       <c r="N10">
-        <v>1.010999447722807</v>
+        <v>1.013096263368443</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034548732401202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034438100428577</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021211266962189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9899972295266606</v>
+        <v>0.9903734411505521</v>
       </c>
       <c r="D11">
-        <v>1.017219115708359</v>
+        <v>1.017237122089084</v>
       </c>
       <c r="E11">
-        <v>1.008417258587101</v>
+        <v>1.008708138533296</v>
       </c>
       <c r="F11">
-        <v>1.017223658514428</v>
+        <v>1.017400513313091</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047140911845031</v>
+        <v>1.047150016911283</v>
       </c>
       <c r="J11">
-        <v>1.019792138427385</v>
+        <v>1.020152253240199</v>
       </c>
       <c r="K11">
-        <v>1.031823449956456</v>
+        <v>1.031841131550286</v>
       </c>
       <c r="L11">
-        <v>1.0231821645389</v>
+        <v>1.023467679631948</v>
       </c>
       <c r="M11">
-        <v>1.031827910821057</v>
+        <v>1.032001576317143</v>
       </c>
       <c r="N11">
-        <v>1.010516450934573</v>
+        <v>1.012988689743962</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033641837070586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.0336699820773</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020973742379079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9889632722915341</v>
+        <v>0.9894157985150978</v>
       </c>
       <c r="D12">
-        <v>1.01649964392766</v>
+        <v>1.016594783272183</v>
       </c>
       <c r="E12">
-        <v>1.007597338099214</v>
+        <v>1.007957662456255</v>
       </c>
       <c r="F12">
-        <v>1.016349283661935</v>
+        <v>1.016600913751007</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046879398247309</v>
+        <v>1.046927494739284</v>
       </c>
       <c r="J12">
-        <v>1.019242184025529</v>
+        <v>1.019674955178532</v>
       </c>
       <c r="K12">
-        <v>1.031317419721428</v>
+        <v>1.03141081281523</v>
       </c>
       <c r="L12">
-        <v>1.022580418322715</v>
+        <v>1.022933977873889</v>
       </c>
       <c r="M12">
-        <v>1.031169820136249</v>
+        <v>1.031416830785775</v>
       </c>
       <c r="N12">
-        <v>1.010332764230523</v>
+        <v>1.01296403486555</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033284056014128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03336573812211</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020883126747391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9891844462674189</v>
+        <v>0.9896204111395407</v>
       </c>
       <c r="D13">
-        <v>1.016652907935974</v>
+        <v>1.016731353765322</v>
       </c>
       <c r="E13">
-        <v>1.007772465134633</v>
+        <v>1.008117728071994</v>
       </c>
       <c r="F13">
-        <v>1.016536016367609</v>
+        <v>1.016771442731791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046935027442736</v>
+        <v>1.046974686760471</v>
       </c>
       <c r="J13">
-        <v>1.019359375230125</v>
+        <v>1.019776389498835</v>
       </c>
       <c r="K13">
-        <v>1.031424883842405</v>
+        <v>1.031501895173469</v>
       </c>
       <c r="L13">
-        <v>1.022708717685377</v>
+        <v>1.023047523124414</v>
       </c>
       <c r="M13">
-        <v>1.031310130344462</v>
+        <v>1.031541251165022</v>
       </c>
       <c r="N13">
-        <v>1.010371759647529</v>
+        <v>1.012968281509365</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033357538693938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033427394770748</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020902195551173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9899115101743309</v>
+        <v>0.99029393911509</v>
       </c>
       <c r="D14">
-        <v>1.017159194331373</v>
+        <v>1.017183506634118</v>
       </c>
       <c r="E14">
-        <v>1.00834917028654</v>
+        <v>1.008645711860406</v>
       </c>
       <c r="F14">
-        <v>1.017151037160009</v>
+        <v>1.017333995112661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047119100223886</v>
+        <v>1.047131393685887</v>
       </c>
       <c r="J14">
-        <v>1.019746352632354</v>
+        <v>1.020112391393977</v>
       </c>
       <c r="K14">
-        <v>1.031781163914652</v>
+        <v>1.031805037052058</v>
       </c>
       <c r="L14">
-        <v>1.023132097249248</v>
+        <v>1.023423161463889</v>
       </c>
       <c r="M14">
-        <v>1.031773154096489</v>
+        <v>1.031952807788834</v>
       </c>
       <c r="N14">
-        <v>1.010501095807496</v>
+        <v>1.012986180495903</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03361086922194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033643288615127</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020966093959077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9903602728390075</v>
+        <v>0.9907103656759104</v>
       </c>
       <c r="D15">
-        <v>1.017472988138715</v>
+        <v>1.017464440194791</v>
       </c>
       <c r="E15">
-        <v>1.008705705618919</v>
+        <v>1.008972794445984</v>
       </c>
       <c r="F15">
-        <v>1.01753130535826</v>
+        <v>1.017682490845884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047233239914257</v>
+        <v>1.047228917218044</v>
       </c>
       <c r="J15">
-        <v>1.019986094769878</v>
+        <v>1.020321314234012</v>
       </c>
       <c r="K15">
-        <v>1.032002604050131</v>
+        <v>1.031994209340936</v>
       </c>
       <c r="L15">
-        <v>1.023394265589131</v>
+        <v>1.023656459178691</v>
       </c>
       <c r="M15">
-        <v>1.032059875935225</v>
+        <v>1.032208352152158</v>
       </c>
       <c r="N15">
-        <v>1.010581513012732</v>
+        <v>1.013000032744757</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033773318945011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033783491540111</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021006186451052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9929383044782749</v>
+        <v>0.9931136948700698</v>
       </c>
       <c r="D16">
-        <v>1.019269073970035</v>
+        <v>1.019079171138682</v>
       </c>
       <c r="E16">
-        <v>1.010754025743401</v>
+        <v>1.010861621703717</v>
       </c>
       <c r="F16">
-        <v>1.01971509507002</v>
+        <v>1.019692820507617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04787901159624</v>
+        <v>1.047782919635028</v>
       </c>
       <c r="J16">
-        <v>1.021357235238372</v>
+        <v>1.021525550277897</v>
       </c>
       <c r="K16">
-        <v>1.033263239367455</v>
+        <v>1.033076590990191</v>
       </c>
       <c r="L16">
-        <v>1.024895674607252</v>
+        <v>1.025001386890557</v>
       </c>
       <c r="M16">
-        <v>1.03370162295345</v>
+        <v>1.033679729608289</v>
       </c>
       <c r="N16">
-        <v>1.011039637998709</v>
+        <v>1.013112449213843</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034667806583884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034552241083962</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021233841355736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9945379854397156</v>
+        <v>0.9946161632796532</v>
       </c>
       <c r="D17">
-        <v>1.020384499678898</v>
+        <v>1.020089894997735</v>
       </c>
       <c r="E17">
-        <v>1.012027299049196</v>
+        <v>1.012045707618891</v>
       </c>
       <c r="F17">
-        <v>1.021072207263317</v>
+        <v>1.020951579620488</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04827556048169</v>
+        <v>1.048126431810142</v>
       </c>
       <c r="J17">
-        <v>1.02220769113278</v>
+        <v>1.022282818207537</v>
       </c>
       <c r="K17">
-        <v>1.034044311815172</v>
+        <v>1.033754612031467</v>
       </c>
       <c r="L17">
-        <v>1.025827682047884</v>
+        <v>1.025845777685465</v>
       </c>
       <c r="M17">
-        <v>1.034720583884048</v>
+        <v>1.03460196065797</v>
       </c>
       <c r="N17">
-        <v>1.011323811418741</v>
+        <v>1.013219182542149</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035222644114012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035034460854102</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021376279330624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9954591886104356</v>
+        <v>0.9954857090054456</v>
       </c>
       <c r="D18">
-        <v>1.021023833402333</v>
+        <v>1.02067180580434</v>
       </c>
       <c r="E18">
-        <v>1.012760281525859</v>
+        <v>1.012731099281099</v>
       </c>
       <c r="F18">
-        <v>1.021853081925978</v>
+        <v>1.021679329565636</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048500121275399</v>
+        <v>1.048321885329206</v>
       </c>
       <c r="J18">
-        <v>1.022694846766567</v>
+        <v>1.022720352350079</v>
       </c>
       <c r="K18">
-        <v>1.034489274423564</v>
+        <v>1.034143008398472</v>
       </c>
       <c r="L18">
-        <v>1.026362331941143</v>
+        <v>1.026333637214448</v>
       </c>
       <c r="M18">
-        <v>1.035304970947787</v>
+        <v>1.035134055795145</v>
       </c>
       <c r="N18">
-        <v>1.011485852944781</v>
+        <v>1.013293819774699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035525595375159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035296279845176</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021457175972968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9957766850271017</v>
+        <v>0.9957862239443065</v>
       </c>
       <c r="D19">
-        <v>1.021246812652541</v>
+        <v>1.020875683101763</v>
       </c>
       <c r="E19">
-        <v>1.013013860247133</v>
+        <v>1.012968995009045</v>
       </c>
       <c r="F19">
-        <v>1.022123391263498</v>
+        <v>1.021932058863529</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048579038355104</v>
+        <v>1.048391116455381</v>
       </c>
       <c r="J19">
-        <v>1.022864632614014</v>
+        <v>1.022873808976296</v>
       </c>
       <c r="K19">
-        <v>1.034645974060234</v>
+        <v>1.034280883059745</v>
       </c>
       <c r="L19">
-        <v>1.026548316411669</v>
+        <v>1.026504196216377</v>
       </c>
       <c r="M19">
-        <v>1.03550831245273</v>
+        <v>1.035320085614269</v>
       </c>
       <c r="N19">
-        <v>1.011542910656723</v>
+        <v>1.013323306428965</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035642787339053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035400782956351</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021486399592497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9943665502625632</v>
+        <v>0.9944546892307906</v>
       </c>
       <c r="D20">
-        <v>1.020264670920659</v>
+        <v>1.019980956342398</v>
       </c>
       <c r="E20">
-        <v>1.011890678511768</v>
+        <v>1.011918246262456</v>
       </c>
       <c r="F20">
-        <v>1.02092658704046</v>
+        <v>1.020816116633421</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048233043098854</v>
+        <v>1.048089432893196</v>
       </c>
       <c r="J20">
-        <v>1.022116372571904</v>
+        <v>1.022201059685712</v>
       </c>
       <c r="K20">
-        <v>1.033960310071223</v>
+        <v>1.033681333885279</v>
       </c>
       <c r="L20">
-        <v>1.025727618109293</v>
+        <v>1.025754715733899</v>
       </c>
       <c r="M20">
-        <v>1.034611184545091</v>
+        <v>1.034502555649744</v>
       </c>
       <c r="N20">
-        <v>1.011293239119071</v>
+        <v>1.013206119312666</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035161914739257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034981184508853</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021360839731787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9897037301970812</v>
+        <v>0.9901201084704604</v>
       </c>
       <c r="D21">
-        <v>1.017017927876074</v>
+        <v>1.01707093387575</v>
       </c>
       <c r="E21">
-        <v>1.008185453252342</v>
+        <v>1.008512315749313</v>
       </c>
       <c r="F21">
-        <v>1.01697664777098</v>
+        <v>1.017190141481974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047068894489041</v>
+        <v>1.047095695549108</v>
       </c>
       <c r="J21">
-        <v>1.01963833220229</v>
+        <v>1.020036791458997</v>
       </c>
       <c r="K21">
-        <v>1.031683907173258</v>
+        <v>1.031735952258648</v>
       </c>
       <c r="L21">
-        <v>1.0230133915723</v>
+        <v>1.02333419455381</v>
       </c>
       <c r="M21">
-        <v>1.031643375500915</v>
+        <v>1.03185299929684</v>
       </c>
       <c r="N21">
-        <v>1.010465810702703</v>
+        <v>1.013048567740109</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03355564575119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033609295711986</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020953251939245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9867059802658322</v>
+        <v>0.9873327786253793</v>
       </c>
       <c r="D22">
-        <v>1.014929634080962</v>
+        <v>1.015198579514313</v>
       </c>
       <c r="E22">
-        <v>1.005809681212664</v>
+        <v>1.006328385804141</v>
       </c>
       <c r="F22">
-        <v>1.014442486096212</v>
+        <v>1.014863795526864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046303980237311</v>
+        <v>1.046439872476403</v>
       </c>
       <c r="J22">
-        <v>1.018040957317301</v>
+        <v>1.01863919578591</v>
       </c>
       <c r="K22">
-        <v>1.030211022552229</v>
+        <v>1.030474844954514</v>
       </c>
       <c r="L22">
-        <v>1.021266919108707</v>
+        <v>1.021775510010152</v>
       </c>
       <c r="M22">
-        <v>1.029733163097978</v>
+        <v>1.030146438670899</v>
       </c>
       <c r="N22">
-        <v>1.009931478116884</v>
+        <v>1.012934499578337</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03250072167714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032702813905314</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020685616232528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9882936237747898</v>
+        <v>0.9887967546888141</v>
       </c>
       <c r="D23">
-        <v>1.016031183118219</v>
+        <v>1.016176994252439</v>
       </c>
       <c r="E23">
-        <v>1.007065813283705</v>
+        <v>1.00747216259373</v>
       </c>
       <c r="F23">
-        <v>1.015782250325051</v>
+        <v>1.016083252505001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046707570104372</v>
+        <v>1.046781271847865</v>
       </c>
       <c r="J23">
-        <v>1.018883966701925</v>
+        <v>1.019364851000342</v>
       </c>
       <c r="K23">
-        <v>1.030985994342582</v>
+        <v>1.031129099334894</v>
       </c>
       <c r="L23">
-        <v>1.022188983463409</v>
+        <v>1.022587617253481</v>
       </c>
       <c r="M23">
-        <v>1.030741683891309</v>
+        <v>1.031037097245531</v>
       </c>
       <c r="N23">
-        <v>1.010212481496225</v>
+        <v>1.012950684306596</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033039006943911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033154801979419</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02082324249532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9944320115826435</v>
+        <v>0.99451618666164</v>
       </c>
       <c r="D24">
-        <v>1.020303485947326</v>
+        <v>1.020015189466779</v>
       </c>
       <c r="E24">
-        <v>1.011940631231748</v>
+        <v>1.011964557855006</v>
       </c>
       <c r="F24">
-        <v>1.020979345607246</v>
+        <v>1.020864730701744</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048244497937153</v>
+        <v>1.04809856585073</v>
       </c>
       <c r="J24">
-        <v>1.022146094284587</v>
+        <v>1.02222697798161</v>
       </c>
       <c r="K24">
-        <v>1.033983190556416</v>
+        <v>1.033699702376068</v>
       </c>
       <c r="L24">
-        <v>1.025761251361248</v>
+        <v>1.025784770526676</v>
       </c>
       <c r="M24">
-        <v>1.034647791724837</v>
+        <v>1.034535084726051</v>
       </c>
       <c r="N24">
-        <v>1.011301624714199</v>
+        <v>1.01320786095579</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035150661146091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034964069018136</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021363352189421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001314581220968</v>
+        <v>1.001094520691366</v>
       </c>
       <c r="D25">
-        <v>1.02510501359771</v>
+        <v>1.024445581056292</v>
       </c>
       <c r="E25">
-        <v>1.017437174072769</v>
+        <v>1.017176757098971</v>
       </c>
       <c r="F25">
-        <v>1.026833918018409</v>
+        <v>1.026390258329772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04990842428131</v>
+        <v>1.049574056930648</v>
       </c>
       <c r="J25">
-        <v>1.025797785310762</v>
+        <v>1.025585105910675</v>
       </c>
       <c r="K25">
-        <v>1.03732571743655</v>
+        <v>1.036675903286788</v>
       </c>
       <c r="L25">
-        <v>1.029770699236024</v>
+        <v>1.029514151894069</v>
       </c>
       <c r="M25">
-        <v>1.03902947866444</v>
+        <v>1.038592260806115</v>
       </c>
       <c r="N25">
-        <v>1.01252100072486</v>
+        <v>1.01405187601021</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037511135753239</v>
+        <v>1.037065217144227</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021986531151275</v>
       </c>
     </row>
   </sheetData>
